--- a/Sufficient data/forecast_summary_B07HS59X7P.xlsx
+++ b/Sufficient data/forecast_summary_B07HS59X7P.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,51 +477,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -525,33 +537,38 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -560,33 +577,38 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -595,33 +617,38 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -635,28 +662,33 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -670,28 +702,33 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -705,28 +742,33 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -740,28 +782,33 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -775,12 +822,15 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,11 +842,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -810,12 +862,15 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,11 +882,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -845,12 +902,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,11 +922,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -880,12 +942,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,11 +962,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -915,12 +982,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,11 +1002,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -950,12 +1022,15 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,11 +1042,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -985,12 +1062,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,11 +1082,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1020,12 +1102,15 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z390 UD</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B07HS59X7P.xlsx
+++ b/Sufficient data/forecast_summary_B07HS59X7P.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-12-29</t>
+          <t>2023-01-01 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B07HS59X7P.xlsx
+++ b/Sufficient data/forecast_summary_B07HS59X7P.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,16 +574,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-05</t>
+          <t>2023-01-01 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B07HS59X7P.xlsx
+++ b/Sufficient data/forecast_summary_B07HS59X7P.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-12</t>
+          <t>2023-01-01 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B07HS59X7P.xlsx
+++ b/Sufficient data/forecast_summary_B07HS59X7P.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-19</t>
+          <t>2023-01-01 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
